--- a/biology/Botanique/Fromage_au_porto/Fromage_au_porto.xlsx
+++ b/biology/Botanique/Fromage_au_porto/Fromage_au_porto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fromage au porto (en anglais port wine cheese) est un fromage crémeux de couleur orangée ou rouge, contenant du porto[1], principalement produit et consommé aux États-Unis. Il est généralement consommé avec des crackers. Il peut se présenter sous forme cylindrique ou sphérique, et être roulé dans des noix pilées. Plusieurs marques industrielles de fromage au porto sont disponibles aux États-Unis. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fromage au porto (en anglais port wine cheese) est un fromage crémeux de couleur orangée ou rouge, contenant du porto, principalement produit et consommé aux États-Unis. Il est généralement consommé avec des crackers. Il peut se présenter sous forme cylindrique ou sphérique, et être roulé dans des noix pilées. Plusieurs marques industrielles de fromage au porto sont disponibles aux États-Unis. 
 </t>
         </is>
       </c>
